--- a/CANVAS DE NEGÓCIO WORDIN'ON.xlsx
+++ b/CANVAS DE NEGÓCIO WORDIN'ON.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRÉ PROJETO (WORDIN'ON)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\WordinOn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8FF4D9DF-ED27-4C70-8ABF-767E308BA07A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO CANVAS" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nathan</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,10 +300,6 @@
 - Usuários padrões de software</t>
   </si>
   <si>
-    <t>- Estudantes poderão fazer redações para treinar para o ENEM
-- Estudantes terão preocupação reduzida na hora de fazer a redação no ENEM</t>
-  </si>
-  <si>
     <t>- Site disponível para uso gratuito na internet 
 - Necessidade de cadastro no sistema</t>
   </si>
@@ -334,11 +329,15 @@
   <si>
     <t>- Desenvolvimento a princípio sem fins lucrativos</t>
   </si>
+  <si>
+    <t xml:space="preserve">- Aperfeiçoar a criação de redações do ENEM
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,6 +551,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -601,21 +615,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,308 +950,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="14"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="14"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F10"/>
     <mergeCell ref="A1:A25"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B25:G25"/>
@@ -1268,6 +1262,11 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
